--- a/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/atlas.xlsx
+++ b/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/atlas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="63">
   <si>
     <t>GeneratedAtlas</t>
   </si>
@@ -54,6 +54,36 @@
     <t>BR10</t>
   </si>
   <si>
+    <t>BR11</t>
+  </si>
+  <si>
+    <t>BR12</t>
+  </si>
+  <si>
+    <t>BR13</t>
+  </si>
+  <si>
+    <t>BR14</t>
+  </si>
+  <si>
+    <t>BR15</t>
+  </si>
+  <si>
+    <t>BR16</t>
+  </si>
+  <si>
+    <t>BR17</t>
+  </si>
+  <si>
+    <t>BR18</t>
+  </si>
+  <si>
+    <t>BR19</t>
+  </si>
+  <si>
+    <t>BR20</t>
+  </si>
+  <si>
     <t>Region1</t>
   </si>
   <si>
@@ -84,6 +114,36 @@
     <t>Region10</t>
   </si>
   <si>
+    <t>Region11</t>
+  </si>
+  <si>
+    <t>Region12</t>
+  </si>
+  <si>
+    <t>Region13</t>
+  </si>
+  <si>
+    <t>Region14</t>
+  </si>
+  <si>
+    <t>Region15</t>
+  </si>
+  <si>
+    <t>Region16</t>
+  </si>
+  <si>
+    <t>Region17</t>
+  </si>
+  <si>
+    <t>Region18</t>
+  </si>
+  <si>
+    <t>Region19</t>
+  </si>
+  <si>
+    <t>Region20</t>
+  </si>
+  <si>
     <t>notes1</t>
   </si>
   <si>
@@ -112,6 +172,36 @@
   </si>
   <si>
     <t>notes10</t>
+  </si>
+  <si>
+    <t>notes11</t>
+  </si>
+  <si>
+    <t>notes12</t>
+  </si>
+  <si>
+    <t>notes13</t>
+  </si>
+  <si>
+    <t>notes14</t>
+  </si>
+  <si>
+    <t>notes15</t>
+  </si>
+  <si>
+    <t>notes16</t>
+  </si>
+  <si>
+    <t>notes17</t>
+  </si>
+  <si>
+    <t>notes18</t>
+  </si>
+  <si>
+    <t>notes19</t>
+  </si>
+  <si>
+    <t>notes20</t>
   </si>
 </sst>
 </file>
@@ -157,18 +247,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="true"/>
-    <col min="2" max="2" width="7.54296875" customWidth="true"/>
-    <col min="3" max="3" width="12.453125" customWidth="true"/>
-    <col min="4" max="4" width="12.08984375" customWidth="true"/>
-    <col min="5" max="5" width="12.08984375" customWidth="true"/>
-    <col min="6" max="6" width="6.54296875" customWidth="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="true"/>
+    <col min="2" max="2" width="9.28515625" customWidth="true"/>
+    <col min="3" max="3" width="13.42578125" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -214,19 +304,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
-        <v>0.16472192346259362</v>
+        <v>24.590840017003558</v>
       </c>
       <c r="D5" s="0">
-        <v>20.03555710661719</v>
+        <v>5.7149689242862465</v>
       </c>
       <c r="E5" s="0">
-        <v>20.907808146781619</v>
+        <v>-37.076086177685319</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -234,19 +324,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
-        <v>33.574618350394971</v>
+        <v>28.18450505032834</v>
       </c>
       <c r="D6" s="0">
-        <v>-25.183650381660915</v>
+        <v>-24.268355763795636</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.5586409698826884</v>
+        <v>-44.143257913924316</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -254,19 +344,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
-        <v>-44.714805785106584</v>
+        <v>28.59377350261515</v>
       </c>
       <c r="D7" s="0">
-        <v>8.8577062429215516</v>
+        <v>31.011383643276019</v>
       </c>
       <c r="E7" s="0">
-        <v>-46.504844705383555</v>
+        <v>6.5691111040070425</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -274,19 +364,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
-        <v>18.423719938858355</v>
+        <v>-31.635170572218605</v>
       </c>
       <c r="D8" s="0">
-        <v>-24.930170859464585</v>
+        <v>-40.694099795210306</v>
       </c>
       <c r="E8" s="0">
-        <v>-16.862876159106101</v>
+        <v>-20.872944354496436</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -294,19 +384,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
-        <v>-46.771488540257913</v>
+        <v>4.1630986784944355</v>
       </c>
       <c r="D9" s="0">
-        <v>37.303994653628905</v>
+        <v>47.089780870470079</v>
       </c>
       <c r="E9" s="0">
-        <v>-30.101645896276818</v>
+        <v>-13.390017022551056</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -314,19 +404,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
-        <v>8.4421314291093239</v>
+        <v>15.904015746362191</v>
       </c>
       <c r="D10" s="0">
-        <v>-24.180304533798335</v>
+        <v>-7.4711752329462726</v>
       </c>
       <c r="E10" s="0">
-        <v>6.7493748263614108</v>
+        <v>-15.438673793572335</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -334,19 +424,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
-        <v>3.9747330240646619</v>
+        <v>-46.59940567295898</v>
       </c>
       <c r="D11" s="0">
-        <v>-31.9565427612566</v>
+        <v>46.330366132253033</v>
       </c>
       <c r="E11" s="0">
-        <v>35.766696152897424</v>
+        <v>-34.755621849212034</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -354,19 +444,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
-        <v>-44.499437994645952</v>
+        <v>-42.78268306878811</v>
       </c>
       <c r="D12" s="0">
-        <v>47.498588976749474</v>
+        <v>-42.830901739527718</v>
       </c>
       <c r="E12" s="0">
-        <v>-26.044278290637457</v>
+        <v>-22.319494069899193</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -374,19 +464,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
-        <v>32.612610987973312</v>
+        <v>-39.217644204023046</v>
       </c>
       <c r="D13" s="0">
-        <v>30.5843235250954</v>
+        <v>35.960768446651201</v>
       </c>
       <c r="E13" s="0">
-        <v>15.247953454010926</v>
+        <v>41.168171711305334</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -394,19 +484,219 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-18.728257735603961</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-49.667597890369933</v>
+      </c>
+      <c r="E14" s="0">
+        <v>27.023594833853537</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="0">
+        <v>-7.1840036123740205</v>
+      </c>
+      <c r="D15" s="0">
+        <v>18.87992661245066</v>
+      </c>
+      <c r="E15" s="0">
+        <v>30.245219920647244</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0">
+        <v>-9.0465794635009473</v>
+      </c>
+      <c r="D16" s="0">
+        <v>-11.831026359759903</v>
+      </c>
+      <c r="E16" s="0">
+        <v>45.66242506538012</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0">
+        <v>-40.364890782396323</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-0.61900513901083087</v>
+      </c>
+      <c r="E17" s="0">
+        <v>24.591669670049484</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="0">
+        <v>30.919714427773542</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-23.615583358165672</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-29.889674543036115</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0">
+        <v>40.725522636999671</v>
+      </c>
+      <c r="D19" s="0">
+        <v>6.6637939468594993</v>
+      </c>
+      <c r="E19" s="0">
+        <v>24.095830648583387</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-29.528507481254152</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2.2172891419495215</v>
+      </c>
+      <c r="E20" s="0">
+        <v>23.633276458334947</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0">
+        <v>-31.617891574321732</v>
+      </c>
+      <c r="D21" s="0">
+        <v>19.02894753981667</v>
+      </c>
+      <c r="E21" s="0">
+        <v>31.093627442816938</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0">
+        <v>6.6472762380934469</v>
+      </c>
+      <c r="D22" s="0">
+        <v>24.250142820957663</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-3.9591093055064377</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="0">
+        <v>-0.49842444515360995</v>
+      </c>
+      <c r="D23" s="0">
+        <v>10.637792000198885</v>
+      </c>
+      <c r="E23" s="0">
+        <v>-20.93216951681498</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="0">
-        <v>-46.567547951032971</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-19.041849626722161</v>
-      </c>
-      <c r="E14" s="0">
-        <v>-36.248023358418749</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>32</v>
+      <c r="B24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="0">
+        <v>-16.486154229131657</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-35.598259654225508</v>
+      </c>
+      <c r="E24" s="0">
+        <v>32.846905118868122</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/atlas.xlsx
+++ b/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/atlas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="63">
   <si>
     <t>GeneratedAtlas</t>
   </si>
@@ -255,7 +255,7 @@
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="true"/>
     <col min="2" max="2" width="9.28515625" customWidth="true"/>
-    <col min="3" max="3" width="13.42578125" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.42578125" customWidth="true"/>
     <col min="5" max="5" width="12.42578125" customWidth="true"/>
     <col min="6" max="6" width="8.140625" customWidth="true"/>
@@ -307,13 +307,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="0">
-        <v>24.590840017003558</v>
+        <v>-33.613505642980336</v>
       </c>
       <c r="D5" s="0">
-        <v>5.7149689242862465</v>
+        <v>16.355847001730481</v>
       </c>
       <c r="E5" s="0">
-        <v>-37.076086177685319</v>
+        <v>-39.07503826255406</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
@@ -327,13 +327,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="0">
-        <v>28.18450505032834</v>
+        <v>-6.1398914582856321</v>
       </c>
       <c r="D6" s="0">
-        <v>-24.268355763795636</v>
+        <v>48.874537761465803</v>
       </c>
       <c r="E6" s="0">
-        <v>-44.143257913924316</v>
+        <v>21.550417495865204</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>44</v>
@@ -347,13 +347,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="0">
-        <v>28.59377350261515</v>
+        <v>-2.5105873274167152</v>
       </c>
       <c r="D7" s="0">
-        <v>31.011383643276019</v>
+        <v>-49.412543557929766</v>
       </c>
       <c r="E7" s="0">
-        <v>6.5691111040070425</v>
+        <v>33.876863505637928</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>45</v>
@@ -367,13 +367,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="0">
-        <v>-31.635170572218605</v>
+        <v>37.977072083912518</v>
       </c>
       <c r="D8" s="0">
-        <v>-40.694099795210306</v>
+        <v>-31.209859956687637</v>
       </c>
       <c r="E8" s="0">
-        <v>-20.872944354496436</v>
+        <v>25.660833519529675</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>46</v>
@@ -387,13 +387,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="0">
-        <v>4.1630986784944355</v>
+        <v>45.269237095390707</v>
       </c>
       <c r="D9" s="0">
-        <v>47.089780870470079</v>
+        <v>38.573513746299426</v>
       </c>
       <c r="E9" s="0">
-        <v>-13.390017022551056</v>
+        <v>17.095881474508076</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>47</v>
@@ -407,13 +407,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="0">
-        <v>15.904015746362191</v>
+        <v>31.496819737399889</v>
       </c>
       <c r="D10" s="0">
-        <v>-7.4711752329462726</v>
+        <v>14.364027624236613</v>
       </c>
       <c r="E10" s="0">
-        <v>-15.438673793572335</v>
+        <v>2.1190213942674205</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>48</v>
@@ -427,13 +427,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="0">
-        <v>-46.59940567295898</v>
+        <v>43.569419818984443</v>
       </c>
       <c r="D11" s="0">
-        <v>46.330366132253033</v>
+        <v>-47.381943360989276</v>
       </c>
       <c r="E11" s="0">
-        <v>-34.755621849212034</v>
+        <v>-38.964784686914555</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>49</v>
@@ -447,13 +447,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="0">
-        <v>-42.78268306878811</v>
+        <v>-35.046081569582874</v>
       </c>
       <c r="D12" s="0">
-        <v>-42.830901739527718</v>
+        <v>29.027772811621318</v>
       </c>
       <c r="E12" s="0">
-        <v>-22.319494069899193</v>
+        <v>27.206800377566481</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>50</v>
@@ -467,13 +467,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="0">
-        <v>-39.217644204023046</v>
+        <v>27.444377673897918</v>
       </c>
       <c r="D13" s="0">
-        <v>35.960768446651201</v>
+        <v>-20.840527192046288</v>
       </c>
       <c r="E13" s="0">
-        <v>41.168171711305334</v>
+        <v>16.491314703872163</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>51</v>
@@ -487,13 +487,13 @@
         <v>32</v>
       </c>
       <c r="C14" s="0">
-        <v>-18.728257735603961</v>
+        <v>-19.810723044538626</v>
       </c>
       <c r="D14" s="0">
-        <v>-49.667597890369933</v>
+        <v>-25.989532277898508</v>
       </c>
       <c r="E14" s="0">
-        <v>27.023594833853537</v>
+        <v>-48.889999976655652</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>52</v>
@@ -507,13 +507,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="0">
-        <v>-7.1840036123740205</v>
+        <v>40.255367020559333</v>
       </c>
       <c r="D15" s="0">
-        <v>18.87992661245066</v>
+        <v>46.432869376640824</v>
       </c>
       <c r="E15" s="0">
-        <v>30.245219920647244</v>
+        <v>-4.3472811356112118</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>53</v>
@@ -527,13 +527,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="0">
-        <v>-9.0465794635009473</v>
+        <v>0.056680143667733773</v>
       </c>
       <c r="D16" s="0">
-        <v>-11.831026359759903</v>
+        <v>2.6683575677021096</v>
       </c>
       <c r="E16" s="0">
-        <v>45.66242506538012</v>
+        <v>14.802203348495738</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>54</v>
@@ -547,13 +547,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="0">
-        <v>-40.364890782396323</v>
+        <v>7.6040452428828615</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.61900513901083087</v>
+        <v>-18.763460666383246</v>
       </c>
       <c r="E17" s="0">
-        <v>24.591669670049484</v>
+        <v>-41.625696948931605</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>55</v>
@@ -567,13 +567,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="0">
-        <v>30.919714427773542</v>
+        <v>11.928280805336399</v>
       </c>
       <c r="D18" s="0">
-        <v>-23.615583358165672</v>
+        <v>-16.693853742074438</v>
       </c>
       <c r="E18" s="0">
-        <v>-29.889674543036115</v>
+        <v>1.9069934746436132</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>56</v>
@@ -587,13 +587,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="0">
-        <v>40.725522636999671</v>
+        <v>-17.350747270719523</v>
       </c>
       <c r="D19" s="0">
-        <v>6.6637939468594993</v>
+        <v>38.395903845987007</v>
       </c>
       <c r="E19" s="0">
-        <v>24.095830648583387</v>
+        <v>12.49720433848718</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>57</v>
@@ -607,13 +607,13 @@
         <v>38</v>
       </c>
       <c r="C20" s="0">
-        <v>-29.528507481254152</v>
+        <v>-0.22706239192801547</v>
       </c>
       <c r="D20" s="0">
-        <v>2.2172891419495215</v>
+        <v>-0.28426353799808624</v>
       </c>
       <c r="E20" s="0">
-        <v>23.633276458334947</v>
+        <v>30.432222858117186</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>58</v>
@@ -627,13 +627,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="0">
-        <v>-31.617891574321732</v>
+        <v>-43.431734261024616</v>
       </c>
       <c r="D21" s="0">
-        <v>19.02894753981667</v>
+        <v>6.661814492056763</v>
       </c>
       <c r="E21" s="0">
-        <v>31.093627442816938</v>
+        <v>-22.592436128255567</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>59</v>
@@ -647,13 +647,13 @@
         <v>40</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6472762380934469</v>
+        <v>46.600407749673138</v>
       </c>
       <c r="D22" s="0">
-        <v>24.250142820957663</v>
+        <v>-21.990940873699259</v>
       </c>
       <c r="E22" s="0">
-        <v>-3.9591093055064377</v>
+        <v>-43.101015756102292</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>60</v>
@@ -667,13 +667,13 @@
         <v>41</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.49842444515360995</v>
+        <v>-39.288178451721699</v>
       </c>
       <c r="D23" s="0">
-        <v>10.637792000198885</v>
+        <v>-45.480464653621134</v>
       </c>
       <c r="E23" s="0">
-        <v>-20.93216951681498</v>
+        <v>41.470832162372005</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>61</v>
@@ -687,13 +687,13 @@
         <v>42</v>
       </c>
       <c r="C24" s="0">
-        <v>-16.486154229131657</v>
+        <v>-12.162296939012371</v>
       </c>
       <c r="D24" s="0">
-        <v>-35.598259654225508</v>
+        <v>45.915850163928312</v>
       </c>
       <c r="E24" s="0">
-        <v>32.846905118868122</v>
+        <v>18.064828386264566</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>62</v>
